--- a/Managerial Economics/iphone.XLSX
+++ b/Managerial Economics/iphone.XLSX
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IIML\Managerial Economics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E09A11A-752A-42FF-91D6-BB47DB9387EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4584F184-2434-4983-937C-ED07B4E324FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Price elasticity" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Year</t>
   </si>
@@ -51,18 +51,6 @@
   </si>
   <si>
     <t>Revenue in Millions</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
   </si>
   <si>
     <t>% change in Units sold (Y-o-Y)</t>
@@ -675,8 +663,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -842,7 +831,704 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Price</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Elasticity</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Units in Millions sold</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Graphs!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Graphs!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72.290000000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150.26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>169.22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>231.22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>211.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6D55-4307-AE4B-C0AC82647BA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Price per iphone</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Graphs!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Graphs!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>627</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>636</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>603</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>645</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6D55-4307-AE4B-C0AC82647BA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Price elasticity of Demand (Ed)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Graphs!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Graphs!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6D55-4307-AE4B-C0AC82647BA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1757989376"/>
+        <c:axId val="1757991456"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1757989376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1757991456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1757991456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1757989376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1416,6 +2102,522 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1556,6 +2758,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF1A02D2-566B-423E-A106-A8FFC8FC105F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1824,8 +3062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1857,13 +3095,13 @@
         <v>1</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I1" s="4"/>
     </row>
@@ -1917,13 +3155,13 @@
         <v>29</v>
       </c>
       <c r="H3" s="1">
-        <f>ABS(ROUND(F3/G3,0))</f>
+        <f t="shared" ref="H3:H11" si="3">ABS(ROUND(F3/G3,0))</f>
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A11" si="3">A3+1</f>
+        <f t="shared" ref="A4:A11" si="4">A3+1</f>
         <v>2009</v>
       </c>
       <c r="B4" s="1">
@@ -1945,17 +3183,17 @@
         <v>56</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ref="G4:G11" si="4">ROUND((((E4-E3)*2)/(E4+E3))*100,0)</f>
+        <f t="shared" ref="G4:G11" si="5">ROUND((((E4-E3)*2)/(E4+E3))*100,0)</f>
         <v>8</v>
       </c>
       <c r="H4" s="1">
-        <f>ABS(ROUND(F4/G4,0))</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2010</v>
       </c>
       <c r="B5" s="1">
@@ -1977,17 +3215,17 @@
         <v>63</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H5" s="1" t="e">
-        <f>ABS(ROUND(F5/G5,0))</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2011</v>
       </c>
       <c r="B6" s="1">
@@ -2009,17 +3247,17 @@
         <v>58</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H6" s="1">
-        <f>ABS(ROUND(F6/G6,0))</f>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2012</v>
       </c>
       <c r="B7" s="1">
@@ -2037,21 +3275,21 @@
         <v>629</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ref="F7:F11" si="5">ROUND((((D7-D6)*2)/(D7+D6))*100,0)</f>
+        <f t="shared" ref="F7:F11" si="6">ROUND((((D7-D6)*2)/(D7+D6))*100,0)</f>
         <v>53</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="H7" s="1">
-        <f>ABS(ROUND(F7/G7,0))</f>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2013</v>
       </c>
       <c r="B8" s="1">
@@ -2069,21 +3307,21 @@
         <v>608</v>
       </c>
       <c r="F8" s="1">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="G8" s="1">
         <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" si="4"/>
         <v>-3</v>
       </c>
       <c r="H8" s="1">
-        <f>ABS(ROUND(F8/G8,0))</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2014</v>
       </c>
       <c r="B9" s="1">
@@ -2101,21 +3339,21 @@
         <v>603</v>
       </c>
       <c r="F9" s="1">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="G9" s="1">
         <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="H9" s="1">
-        <f>ABS(ROUND(F9/G9,0))</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2015</v>
       </c>
       <c r="B10" s="1">
@@ -2133,21 +3371,21 @@
         <v>670</v>
       </c>
       <c r="F10" s="1">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="G10" s="1">
         <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
-      <c r="G10" s="1">
-        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="H10" s="1">
-        <f>ABS(ROUND(F10/G10,0))</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2016</v>
       </c>
       <c r="B11" s="1">
@@ -2165,15 +3403,15 @@
         <v>645</v>
       </c>
       <c r="F11" s="1">
+        <f t="shared" si="6"/>
+        <v>-9</v>
+      </c>
+      <c r="G11" s="1">
         <f t="shared" si="5"/>
-        <v>-9</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
       <c r="H11" s="1">
-        <f>ABS(ROUND(F11/G11,0))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -2232,10 +3470,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0DD5F8-085E-4408-8183-BA9808300AED}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2244,7 +3482,7 @@
     <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2254,8 +3492,11 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2007</v>
       </c>
@@ -2266,7 +3507,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2008</v>
       </c>
@@ -2276,8 +3517,11 @@
       <c r="C3" s="1">
         <v>576</v>
       </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2009</v>
       </c>
@@ -2287,8 +3531,11 @@
       <c r="C4" s="1">
         <v>627</v>
       </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2010</v>
       </c>
@@ -2298,8 +3545,11 @@
       <c r="C5" s="1">
         <v>630</v>
       </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2011</v>
       </c>
@@ -2309,8 +3559,11 @@
       <c r="C6" s="1">
         <v>636</v>
       </c>
+      <c r="D6">
+        <v>58</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2012</v>
       </c>
@@ -2320,8 +3573,11 @@
       <c r="C7" s="1">
         <v>629</v>
       </c>
+      <c r="D7">
+        <v>53</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2013</v>
       </c>
@@ -2331,8 +3587,11 @@
       <c r="C8" s="1">
         <v>608</v>
       </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2014</v>
       </c>
@@ -2342,8 +3601,11 @@
       <c r="C9" s="1">
         <v>603</v>
       </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2015</v>
       </c>
@@ -2353,8 +3615,11 @@
       <c r="C10" s="1">
         <v>670</v>
       </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2016</v>
       </c>
@@ -2363,6 +3628,9 @@
       </c>
       <c r="C11" s="1">
         <v>645</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
